--- a/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.8048258754552394</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9408399093889822</v>
+        <v>0.9408399093889824</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7128832047147602</v>
@@ -697,7 +697,7 @@
         <v>0.8296180839040956</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9527575267440879</v>
+        <v>0.9527575267440874</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5510080069199117</v>
+        <v>0.5514550934924909</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6540295337513208</v>
+        <v>0.6556564987249256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7485206868058055</v>
+        <v>0.7496504778195699</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9017024249140074</v>
+        <v>0.9040852987377977</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6459992179731693</v>
+        <v>0.6466823740574731</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7340264457740119</v>
+        <v>0.7386505866467129</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8107577384457205</v>
+        <v>0.8100162878097428</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9301983004381988</v>
+        <v>0.9331743083097144</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.616074459507868</v>
+        <v>0.621147861650434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7086134971110506</v>
+        <v>0.710980673615387</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7960177065387641</v>
+        <v>0.7946307005063772</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9297990540736497</v>
+        <v>0.9300165542928964</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6710680545631049</v>
+        <v>0.6667003095005274</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.761517598784787</v>
+        <v>0.7657390903953853</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.850068500761313</v>
+        <v>0.8509091748486549</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.963510732198693</v>
+        <v>0.9620986430677294</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7661241443777773</v>
+        <v>0.7659483120597976</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8358408789719979</v>
+        <v>0.8383423306322305</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8918117723647527</v>
+        <v>0.8938756447750588</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9807057630723461</v>
+        <v>0.981035469304378</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.701306022304595</v>
+        <v>0.7062028812705469</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7867768190624949</v>
+        <v>0.7854883813279854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8614825902371092</v>
+        <v>0.8598113401573403</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9662575697361471</v>
+        <v>0.9674963072980401</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.7859094447750073</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.935420001259421</v>
+        <v>0.9354200012594209</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5165708619493562</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4108898803097527</v>
+        <v>0.4116846217088755</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5158521360902458</v>
+        <v>0.5188103977951705</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.643210226007434</v>
+        <v>0.6396386202461339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9015571678720117</v>
+        <v>0.8990957753066992</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5313494621200149</v>
+        <v>0.5261368481990873</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6305765457332086</v>
+        <v>0.6306929788536448</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7486124294640087</v>
+        <v>0.7490228903811151</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9134051005573401</v>
+        <v>0.9139610791197487</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4848811390859988</v>
+        <v>0.4846956975965396</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5874822420228704</v>
+        <v>0.5892183871363363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7085688221877443</v>
+        <v>0.708827196333421</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9160989921630605</v>
+        <v>0.9163109891736541</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5012825743610226</v>
+        <v>0.4978781478132354</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6054200660708766</v>
+        <v>0.6114736571686616</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7269094024228411</v>
+        <v>0.7259750421463768</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9528363870399641</v>
+        <v>0.954669297580148</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6210691694243029</v>
+        <v>0.6157492949092768</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7155645819566627</v>
+        <v>0.7133981797687887</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8158621992093537</v>
+        <v>0.8203931215721807</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9521703385039311</v>
+        <v>0.9513378641195084</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5482140158335972</v>
+        <v>0.5479808002205013</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6501128815811533</v>
+        <v>0.6495207504573606</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7646043636171548</v>
+        <v>0.7639423582300399</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9487019511104281</v>
+        <v>0.9486030128335425</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.780465512713977</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9473202027376173</v>
+        <v>0.9473202027376175</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7493738755651252</v>
@@ -969,7 +969,7 @@
         <v>0.755698251008014</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9338014601554292</v>
+        <v>0.9338014601554294</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6742377159617339</v>
+        <v>0.6706254881081473</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7520045631552824</v>
+        <v>0.7510240408077231</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6780717658294617</v>
+        <v>0.6806317322014114</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8817879392017423</v>
+        <v>0.8838156828742405</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.72586655578313</v>
+        <v>0.7221736800244598</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8148118214188339</v>
+        <v>0.8143766870352814</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.734037351041568</v>
+        <v>0.7360233340464845</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9254391895254716</v>
+        <v>0.9209549004844212</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7118469343233906</v>
+        <v>0.7161443595915794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7981496142206959</v>
+        <v>0.7993026646801745</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.719257322600181</v>
+        <v>0.7179070226869098</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.914180056771464</v>
+        <v>0.9154705754425617</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7765481898119483</v>
+        <v>0.7701050822027051</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8388027752465851</v>
+        <v>0.8409402036887742</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.776870608502593</v>
+        <v>0.7774901137434833</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9445340910185893</v>
+        <v>0.9450764591472004</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.813848728236147</v>
+        <v>0.8168758492138465</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8927151495273387</v>
+        <v>0.8984157066787765</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8242971421717034</v>
+        <v>0.8229979733343764</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9646853407860403</v>
+        <v>0.9635868789313108</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7812380874595649</v>
+        <v>0.7845992525603558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8555564644928503</v>
+        <v>0.8614979165536859</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7873230757918402</v>
+        <v>0.7850997373835562</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9518193490982134</v>
+        <v>0.9498594482621953</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8020536139534457</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9847014383317978</v>
+        <v>0.9847014383317977</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7768106998204161</v>
@@ -1105,7 +1105,7 @@
         <v>0.8363263475553974</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9821405102863592</v>
+        <v>0.9821405102863591</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6372227380787451</v>
+        <v>0.6329291180431055</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7366441638271325</v>
+        <v>0.7357398341787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7541839927300975</v>
+        <v>0.7596026300744738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9606047305487531</v>
+        <v>0.9592835180985221</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7334269465881132</v>
+        <v>0.7300987236787931</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8137229843566621</v>
+        <v>0.8185746513758019</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8305723465765327</v>
+        <v>0.8322246554428487</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9616449899666665</v>
+        <v>0.9607420229488416</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7002104684925697</v>
+        <v>0.7016311890368341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7862369668722562</v>
+        <v>0.7912963020508812</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8074912552178299</v>
+        <v>0.8072284518171919</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9690955756300851</v>
+        <v>0.9690032161960692</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7324194467354049</v>
+        <v>0.7299144850547755</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8255640829014025</v>
+        <v>0.8260828300647672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8426350589179853</v>
+        <v>0.8440210054113878</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9946544641559616</v>
+        <v>0.9953274386768269</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8150994688890759</v>
+        <v>0.814899150518918</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8868500088275019</v>
+        <v>0.8870115199497633</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9007597617631482</v>
+        <v>0.9014649381113766</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9893828423377792</v>
+        <v>0.9892721128176775</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7639108379691978</v>
+        <v>0.7633795666041755</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.844234514161577</v>
+        <v>0.850839533094633</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8615670852254667</v>
+        <v>0.8629965795703891</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9894147322770548</v>
+        <v>0.9901985209305042</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.8980521468309693</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9950193709867466</v>
+        <v>0.9950193709867464</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4315203673961664</v>
+        <v>0.4346117435181955</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5733115373817889</v>
+        <v>0.5689791763327341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8485645426791276</v>
+        <v>0.8524067693557836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9857885909360279</v>
+        <v>0.989652559137652</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5554678488456829</v>
+        <v>0.5518890333383273</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6678934418480624</v>
+        <v>0.6633499029687203</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8546571311226826</v>
+        <v>0.8482720745442726</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9788170332648964</v>
+        <v>0.9772003299834301</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5181405973461166</v>
+        <v>0.5182656134204895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.639228814240305</v>
+        <v>0.6393525995175724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8632597155646361</v>
+        <v>0.8649333045826513</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9873063932031914</v>
+        <v>0.9877955206663438</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5694582257027546</v>
+        <v>0.5773546769271445</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7088866883698376</v>
+        <v>0.7078426465144637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9371389706574892</v>
+        <v>0.9357275243256812</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6921992701375788</v>
+        <v>0.6916700940466172</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7882778309105318</v>
+        <v>0.7889199889894578</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9325961544465077</v>
+        <v>0.930183378763665</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9981092650479253</v>
+        <v>0.9980907873093661</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6175600011545189</v>
+        <v>0.6170624356945457</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7321625514279569</v>
+        <v>0.7307780250694229</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9243203346192667</v>
+        <v>0.9239539538489365</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.998881524172194</v>
+        <v>0.9989109094743891</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.5388356743824946</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9680586077662053</v>
+        <v>0.9680586077662052</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.7631495927149748</v>
@@ -1365,7 +1365,7 @@
         <v>0.599736963212452</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9794487856724872</v>
+        <v>0.9794487856724868</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.704971387776169</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5899282759560721</v>
+        <v>0.576203190420759</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6688591881774508</v>
+        <v>0.6754360258447314</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4688991371348202</v>
+        <v>0.4725794394587177</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9436941969474774</v>
+        <v>0.9397403234392289</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7058586291033514</v>
+        <v>0.7107259704042485</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7845151882863104</v>
+        <v>0.7816894702164924</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5409324046263302</v>
+        <v>0.5392949629188066</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.953346387532937</v>
+        <v>0.9567047128631905</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6664012498097452</v>
+        <v>0.6666882114901962</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7423916993490728</v>
+        <v>0.7410269254635896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5249354131349138</v>
+        <v>0.5271583405365025</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.95860460581359</v>
+        <v>0.9582164584734149</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.703776871258858</v>
+        <v>0.7020317623440303</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7786834263928273</v>
+        <v>0.7781173686400221</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5958559401850927</v>
+        <v>0.5968889414774908</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9842107444821573</v>
+        <v>0.9833951780450938</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8117983114228158</v>
+        <v>0.8139712355444442</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8753698512907665</v>
+        <v>0.8741321186295432</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6573631238963017</v>
+        <v>0.6582646409301112</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9908574886496341</v>
+        <v>0.990973954408681</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7435373348021939</v>
+        <v>0.7415721054034915</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8143092179211822</v>
+        <v>0.8118302094011041</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6133971654472167</v>
+        <v>0.6153964700576926</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9847623497758003</v>
+        <v>0.9838370253142532</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.6786116085631518</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.901335260763944</v>
+        <v>0.9013352607639442</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.721458828136355</v>
+        <v>0.7167442445590595</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7031016951396279</v>
+        <v>0.7069188196049644</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5923777232869339</v>
+        <v>0.598331457956205</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8513149507411957</v>
+        <v>0.8504041971021159</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7151167739142024</v>
+        <v>0.7163837041131109</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7929059311586889</v>
+        <v>0.7912533869376882</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6827273307760069</v>
+        <v>0.6822115564725475</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8944812224159153</v>
+        <v>0.8943726944695998</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7298754256644753</v>
+        <v>0.7289607839046357</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7594679636057317</v>
+        <v>0.7614680367972066</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6493081802685795</v>
+        <v>0.6545904816140238</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8832359786539548</v>
+        <v>0.8804321528536114</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7940377155540167</v>
+        <v>0.7900009099364232</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7771101490752902</v>
+        <v>0.774492275353409</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6754405850130381</v>
+        <v>0.6767740006191387</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9092180886024767</v>
+        <v>0.9110093263088699</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7853306761295125</v>
+        <v>0.7815147424884183</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8517726867910064</v>
+        <v>0.8516562241773492</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7569760236125944</v>
+        <v>0.7533664117154188</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9376788928418515</v>
+        <v>0.938329579251746</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7777075446305101</v>
+        <v>0.7791527124716822</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8061337232151791</v>
+        <v>0.8063434201542174</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.704605077520114</v>
+        <v>0.7043478941725385</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9180324232096432</v>
+        <v>0.9169050981180927</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.7639450260193087</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9771294219136599</v>
+        <v>0.9771294219136601</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.711551312435535</v>
@@ -1637,7 +1637,7 @@
         <v>0.7617401438562065</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.9806960876172819</v>
+        <v>0.9806960876172821</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.6652128740527207</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5798065331559153</v>
+        <v>0.580546776283946</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6965637680511183</v>
+        <v>0.6955119356570625</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7325360064323935</v>
+        <v>0.7303796113775903</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9594021692365202</v>
+        <v>0.9617480937827139</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6768203544207864</v>
+        <v>0.6775954520721409</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7661167835409279</v>
+        <v>0.7713684840320261</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7319137138728703</v>
+        <v>0.7305891538317187</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9693117821811218</v>
+        <v>0.969573335639075</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.639073508535409</v>
+        <v>0.6420777400266716</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.7442195505718506</v>
+        <v>0.7434946744051971</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.7395705753585849</v>
+        <v>0.740838370546674</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.969915341699942</v>
+        <v>0.969838188165725</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6525964330480418</v>
+        <v>0.653926472880784</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7616923891875059</v>
+        <v>0.7613810781127847</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.795465065579399</v>
+        <v>0.7934871971733086</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9871073484950276</v>
+        <v>0.9875912874263399</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7436517985639772</v>
+        <v>0.7431274658119338</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8262920287414546</v>
+        <v>0.8282861665246625</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7917118565059358</v>
+        <v>0.7909378582430294</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9882945766471835</v>
+        <v>0.9885567527007485</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6885201363665151</v>
+        <v>0.6879169422320298</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7872721021093833</v>
+        <v>0.7858786019160482</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7834457251401975</v>
+        <v>0.7831584713298588</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9852798463360727</v>
+        <v>0.9856082638076278</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.7490856667729355</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.9507364393368332</v>
+        <v>0.9507364393368331</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6177819094330131</v>
+        <v>0.6160361948544836</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6969721790471286</v>
+        <v>0.6952862571398259</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7060988334748287</v>
+        <v>0.7062590082952122</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9319870849755064</v>
+        <v>0.933114333370953</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6941819389954378</v>
+        <v>0.6961098922633981</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7818896786822317</v>
+        <v>0.7818717245024267</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7602095461874366</v>
+        <v>0.7587026461628381</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9509075415943987</v>
+        <v>0.9508182653074082</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6595789440501905</v>
+        <v>0.6616919305088612</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.7444752489769761</v>
+        <v>0.7433835899677026</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.7386060304800989</v>
+        <v>0.7381901090429763</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.9450836908993709</v>
+        <v>0.9454715237452681</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6513687992264694</v>
+        <v>0.6498909466268467</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7279701507878756</v>
+        <v>0.7266359960446286</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7385782521067578</v>
+        <v>0.7374432492166588</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9511209811416641</v>
+        <v>0.9517132989287185</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7268794223330922</v>
+        <v>0.7256737620509387</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8090587413278787</v>
+        <v>0.8097926177105443</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7880286629912968</v>
+        <v>0.7887100599667769</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.963511874239131</v>
+        <v>0.9635685045573145</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6827159017497733</v>
+        <v>0.6845290510300438</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7656742497742314</v>
+        <v>0.764857777511878</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.7592553431749243</v>
+        <v>0.760493680271219</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.9559943003090421</v>
+        <v>0.9561209057931217</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>149971</v>
+        <v>150093</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>192767</v>
+        <v>193247</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>219181</v>
+        <v>219512</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>287503</v>
+        <v>288263</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>168501</v>
+        <v>168679</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>209345</v>
+        <v>210664</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>232458</v>
+        <v>232245</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>293999</v>
+        <v>294940</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>328376</v>
+        <v>331081</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>410953</v>
+        <v>412325</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>461320</v>
+        <v>460516</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>590335</v>
+        <v>590473</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>182649</v>
+        <v>181460</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>224448</v>
+        <v>225692</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>248916</v>
+        <v>249162</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>307211</v>
+        <v>306760</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>199834</v>
+        <v>199788</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>238383</v>
+        <v>239096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>255698</v>
+        <v>256289</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>309963</v>
+        <v>310067</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>373806</v>
+        <v>376416</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>456283</v>
+        <v>455535</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>499259</v>
+        <v>498291</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>613483</v>
+        <v>614269</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>202600</v>
+        <v>202991</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>260777</v>
+        <v>262273</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>320072</v>
+        <v>318294</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>478409</v>
+        <v>477102</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>267773</v>
+        <v>265146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>330274</v>
+        <v>330335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>389764</v>
+        <v>389977</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>499170</v>
+        <v>499474</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>483438</v>
+        <v>483253</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>604691</v>
+        <v>606478</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>721510</v>
+        <v>721773</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>986768</v>
+        <v>986996</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>247170</v>
+        <v>245491</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>306056</v>
+        <v>309116</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>361722</v>
+        <v>361257</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>505620</v>
+        <v>506592</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>312987</v>
+        <v>310306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>374788</v>
+        <v>373653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>424777</v>
+        <v>427136</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>520355</v>
+        <v>519900</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>546583</v>
+        <v>546350</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>669156</v>
+        <v>668547</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>778569</v>
+        <v>777895</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1021886</v>
+        <v>1021779</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>214978</v>
+        <v>213826</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>242911</v>
+        <v>242594</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>215385</v>
+        <v>216198</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>278639</v>
+        <v>279280</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>243464</v>
+        <v>242226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>277867</v>
+        <v>277719</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>246863</v>
+        <v>247531</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>327903</v>
+        <v>326315</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>465732</v>
+        <v>468543</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>530002</v>
+        <v>530767</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>470360</v>
+        <v>469477</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>612789</v>
+        <v>613654</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>247599</v>
+        <v>245545</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>270948</v>
+        <v>271639</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>246768</v>
+        <v>246964</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>298466</v>
+        <v>298638</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>272975</v>
+        <v>273990</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>304434</v>
+        <v>306378</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>277219</v>
+        <v>276782</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>341809</v>
+        <v>341420</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>511131</v>
+        <v>513330</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>568122</v>
+        <v>572067</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>514872</v>
+        <v>513418</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>638019</v>
+        <v>636705</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>228553</v>
+        <v>227013</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>275492</v>
+        <v>275153</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>279021</v>
+        <v>281026</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>357707</v>
+        <v>357215</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>272436</v>
+        <v>271200</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>316498</v>
+        <v>318385</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>320871</v>
+        <v>321509</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>405777</v>
+        <v>405396</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>511243</v>
+        <v>512280</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>599846</v>
+        <v>603706</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>610697</v>
+        <v>610498</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>769789</v>
+        <v>769716</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>262698</v>
+        <v>261799</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>308746</v>
+        <v>308940</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>311745</v>
+        <v>312257</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>370386</v>
+        <v>370637</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>302774</v>
+        <v>302699</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>344941</v>
+        <v>345004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>347986</v>
+        <v>348258</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>417481</v>
+        <v>417434</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>557752</v>
+        <v>557364</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>644094</v>
+        <v>649134</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>651594</v>
+        <v>652675</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>785930</v>
+        <v>786552</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87732</v>
+        <v>88360</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>121896</v>
+        <v>120975</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>179235</v>
+        <v>180046</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>202742</v>
+        <v>203537</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>115353</v>
+        <v>114610</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>146663</v>
+        <v>145666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>186817</v>
+        <v>185421</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>221694</v>
+        <v>221328</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>212943</v>
+        <v>212995</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>276280</v>
+        <v>276334</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>371036</v>
+        <v>371755</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>426671</v>
+        <v>426883</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>115775</v>
+        <v>117381</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>150722</v>
+        <v>150500</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>197943</v>
+        <v>197645</v>
       </c>
       <c r="F23" s="6" t="n">
         <v>205665</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>143748</v>
+        <v>143638</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>173099</v>
+        <v>173240</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>203853</v>
+        <v>203326</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>226064</v>
+        <v>226060</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>253802</v>
+        <v>253598</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>316447</v>
+        <v>315849</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>397280</v>
+        <v>397123</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>431674</v>
+        <v>431686</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>159759</v>
+        <v>156042</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>183255</v>
+        <v>185057</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>122904</v>
+        <v>123869</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>255465</v>
+        <v>254394</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>196330</v>
+        <v>197684</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>218171</v>
+        <v>217385</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>147146</v>
+        <v>146700</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>251445</v>
+        <v>252331</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>365824</v>
+        <v>365982</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>409857</v>
+        <v>409104</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>280386</v>
+        <v>281574</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>512333</v>
+        <v>512125</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>190591</v>
+        <v>190118</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>213344</v>
+        <v>213189</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>156181</v>
+        <v>156452</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>266433</v>
+        <v>266212</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>225797</v>
+        <v>226401</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>243437</v>
+        <v>243093</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>178817</v>
+        <v>179062</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>261339</v>
+        <v>261369</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>408169</v>
+        <v>407090</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>449561</v>
+        <v>448193</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>327637</v>
+        <v>328705</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>526313</v>
+        <v>525819</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>443717</v>
+        <v>440817</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>462386</v>
+        <v>464897</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>385858</v>
+        <v>389736</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>609953</v>
+        <v>609300</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>456401</v>
+        <v>457210</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>546431</v>
+        <v>545292</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>466901</v>
+        <v>466548</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>690590</v>
+        <v>690507</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>914713</v>
+        <v>913567</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1022842</v>
+        <v>1025536</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>866987</v>
+        <v>874041</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1314732</v>
+        <v>1310558</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>488355</v>
+        <v>485872</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>511057</v>
+        <v>509336</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>439963</v>
+        <v>440832</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>651439</v>
+        <v>652723</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>501213</v>
+        <v>498778</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>586999</v>
+        <v>586919</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>517678</v>
+        <v>515209</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>723942</v>
+        <v>724444</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>974659</v>
+        <v>976470</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1085691</v>
+        <v>1085974</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>940823</v>
+        <v>940479</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1366528</v>
+        <v>1364850</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>431257</v>
+        <v>431808</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>541975</v>
+        <v>541156</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>567294</v>
+        <v>565624</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>764980</v>
+        <v>766851</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>529579</v>
+        <v>530185</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>630287</v>
+        <v>634607</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>602585</v>
+        <v>601495</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>804139</v>
+        <v>804356</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>975383</v>
+        <v>979969</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1191326</v>
+        <v>1190165</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1181631</v>
+        <v>1183657</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1578003</v>
+        <v>1577877</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>485398</v>
+        <v>486387</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>592649</v>
+        <v>592407</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>616028</v>
+        <v>614496</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>787071</v>
+        <v>787457</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>581871</v>
+        <v>581461</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>679793</v>
+        <v>681434</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>651817</v>
+        <v>651180</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>819887</v>
+        <v>820105</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1050851</v>
+        <v>1049930</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1260243</v>
+        <v>1258012</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1251732</v>
+        <v>1251273</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1603000</v>
+        <v>1603534</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2023674</v>
+        <v>2017955</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2383346</v>
+        <v>2377581</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2384617</v>
+        <v>2385157</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3288115</v>
+        <v>3292092</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2345042</v>
+        <v>2351555</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2774518</v>
+        <v>2774454</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2681855</v>
+        <v>2676539</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>3547584</v>
+        <v>3547251</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4388737</v>
+        <v>4402797</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>5187540</v>
+        <v>5179933</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>5100042</v>
+        <v>5097170</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>6860177</v>
+        <v>6862992</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2133695</v>
+        <v>2128854</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2489346</v>
+        <v>2484783</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2494305</v>
+        <v>2490472</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3355620</v>
+        <v>3357710</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2455498</v>
+        <v>2451425</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2870926</v>
+        <v>2873530</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2779995</v>
+        <v>2782399</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3594607</v>
+        <v>3594819</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4542687</v>
+        <v>4554752</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>5335256</v>
+        <v>5329566</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5242625</v>
+        <v>5251175</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>6939375</v>
+        <v>6940294</v>
       </c>
     </row>
     <row r="40">
